--- a/raw_data/umd/2023/RL_2023-07-12_SBay3.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-12_SBay3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_12_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED362263-B922-414C-8666-349D6D8E2B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6340C73E-9EDA-A946-9B2E-3A16D3D8370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{AF1F61F0-79AE-9442-A25D-55C0833CE772}"/>
   </bookViews>
@@ -20,46 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = SBay3</t>
-  </si>
-  <si>
-    <t>Location ID = e6f30330-e898-42b7-bb1e-8e08a11bf69d</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-12 14:12:30</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:33</t>
-  </si>
-  <si>
-    <t>Readings = 34</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -120,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -627,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1005,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502409CA-287D-9944-BB72-D4466BAB568F}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1031,1982 +994,1897 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45119.592013888891</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.0618280000000002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.0526059999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>91.917789999999997</v>
+      </c>
+      <c r="E2" s="3">
+        <v>104.3676</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.8898669999999998E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99849299999999996</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.7842200000000005E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.66977070000000005</v>
+      </c>
+      <c r="J2" s="3">
+        <v>18.762509999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7.0779010000000003E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.79158930000000005</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2.1326009999999999E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.1470340000000001</v>
+      </c>
+      <c r="O2" s="3">
+        <v>990.90610000000004</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.858513950000003</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.113269860000003</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45119.59202546296</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.0617429999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.054881</v>
+      </c>
+      <c r="D3" s="3">
+        <v>91.918850000000006</v>
+      </c>
+      <c r="E3" s="3">
+        <v>104.38339999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.8904339999999998E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99849390000000005</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.7849900000000005E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.66990819999999995</v>
+      </c>
+      <c r="J3" s="3">
+        <v>18.754020000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7.2167469999999997E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.79490590000000005</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2.076364E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.145635</v>
+      </c>
+      <c r="O3" s="3">
+        <v>990.90719999999999</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.858513950000003</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.113269860000003</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45119.592037037037</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.0616590000000006</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.057156</v>
+      </c>
+      <c r="D4" s="3">
+        <v>91.919920000000005</v>
+      </c>
+      <c r="E4" s="3">
+        <v>104.3991</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.8910009999999997E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99849480000000002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.7857589999999995E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.67004580000000002</v>
+      </c>
+      <c r="J4" s="3">
+        <v>18.745529999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>7.3555930000000005E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.79822249999999995</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2.020127E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.1442349999999999</v>
+      </c>
+      <c r="O4" s="3">
+        <v>990.90840000000003</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.858513950000003</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.113269860000003</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45119.592048611114</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.1066570000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.0541739999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>91.878029999999995</v>
+      </c>
+      <c r="E5" s="3">
+        <v>104.50490000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.8961560000000001E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99850890000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.7928189999999999E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.68083470000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>18.700379999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.6759350000000003E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.71350400000000003</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2.2641250000000002E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.1286830000000001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>990.92650000000003</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.858513950000003</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.113269860000003</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45119.592060185183</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.1088550000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.0555009999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <v>91.876149999999996</v>
+      </c>
+      <c r="E6" s="3">
+        <v>104.51430000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.8966040000000002E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99850989999999995</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.7934289999999994E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.6818845</v>
+      </c>
+      <c r="J6" s="3">
+        <v>18.695080000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.5311969999999998E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.71024889999999996</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2.2525949999999999E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.127459</v>
+      </c>
+      <c r="O6" s="3">
+        <v>990.928</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45119.59207175926</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.1110530000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.0568280000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>91.874279999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>104.52370000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.8970510000000002E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99851100000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.7940390000000003E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.68293429999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>18.689769999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.386459E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.70699380000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2.2410659999999999E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.1262350000000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>990.92960000000005</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45119.592083333337</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.0237890000000007</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.379308</v>
+      </c>
+      <c r="D8" s="3">
+        <v>91.882140000000007</v>
+      </c>
+      <c r="E8" s="3">
+        <v>104.60760000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.9010749999999999E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99851659999999998</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.7994959999999993E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.80246980000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18.633669999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.6497560000000001E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.66477419999999998</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.0836200000000001E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.1106240000000001</v>
+      </c>
+      <c r="O8" s="3">
+        <v>990.91160000000002</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45119.592094907406</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.020111</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.3967010000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>91.881609999999995</v>
+      </c>
+      <c r="E9" s="3">
+        <v>104.6148</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.9014200000000001E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99851719999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.7999649999999995E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.80918069999999997</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18.629480000000001</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.4725800000000001E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.66057529999999998</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.0259829999999999E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.1094010000000001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>990.91110000000003</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45119.592106481483</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.016432</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.4140949999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>91.88109</v>
+      </c>
+      <c r="E10" s="3">
+        <v>104.622</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.9017640000000001E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99851789999999996</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.8004330000000002E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.8158917</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18.62529</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.295404E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.65637639999999997</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9.6834580000000007E-3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.1081780000000001</v>
+      </c>
+      <c r="O10" s="3">
+        <v>990.91060000000004</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45119.592118055552</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.1051179999999992</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.3680320000000004</v>
+      </c>
+      <c r="D11" s="3">
+        <v>91.878619999999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>104.6789</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.9044789999999998E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99853320000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.810919E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.73676920000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18.598520000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.60693140000000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.0284749999999998</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.42671530000000002</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.077196</v>
+      </c>
+      <c r="O11" s="3">
+        <v>990.85799999999995</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45119.592129629629</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.1078159999999997</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.3730580000000003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>91.878630000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>104.684</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.9047220000000002E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99853409999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.8116079999999996E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.73537419999999998</v>
+      </c>
+      <c r="J12" s="3">
+        <v>18.59573</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.63778679999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2.0997050000000002</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.4484088</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.0751839999999999</v>
+      </c>
+      <c r="O12" s="3">
+        <v>990.85490000000004</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45119.592141203706</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.1105140000000002</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5.3780840000000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>91.878649999999993</v>
+      </c>
+      <c r="E13" s="3">
+        <v>104.6891</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.9049660000000002E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99853519999999996</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.8122959999999996E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.73397920000000005</v>
+      </c>
+      <c r="J13" s="3">
+        <v>18.592939999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.66864219999999996</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2.1709339999999999</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.47010220000000003</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.073172</v>
+      </c>
+      <c r="O13" s="3">
+        <v>990.85170000000005</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45119.592152777775</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.9376979999999993</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.5563700000000003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>91.839860000000002</v>
+      </c>
+      <c r="E14" s="3">
+        <v>104.86960000000001</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.9135570000000003E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99854359999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.8172689999999994E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.71440119999999996</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18.53904</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.32206</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3.6745559999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.92950029999999995</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.072962</v>
+      </c>
+      <c r="O14" s="3">
+        <v>990.95659999999998</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45119.592164351852</v>
+      </c>
+      <c r="B15" s="3">
+        <v>8.9301929999999992</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5.5653290000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>91.837689999999995</v>
+      </c>
+      <c r="E15" s="3">
+        <v>104.88079999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.9140870000000003E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99854449999999995</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.8177740000000001E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.71173319999999995</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18.53546</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.3703669999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.7858320000000001</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.96346390000000004</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.0722560000000001</v>
+      </c>
+      <c r="O15" s="3">
+        <v>990.96119999999996</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45119.592175925929</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8.9226880000000008</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.574287</v>
+      </c>
+      <c r="D16" s="3">
+        <v>91.835520000000002</v>
+      </c>
+      <c r="E16" s="3">
+        <v>104.89190000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.9146179999999998E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99854529999999997</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.8182800000000002E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.7090651</v>
+      </c>
+      <c r="J16" s="3">
+        <v>18.531890000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.4186749999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3.8971079999999998</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.99742750000000002</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.0715509999999999</v>
+      </c>
+      <c r="O16" s="3">
+        <v>990.96569999999997</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45119.592187499999</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8.7891639999999995</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.7088749999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>91.752210000000005</v>
+      </c>
+      <c r="E17" s="3">
+        <v>104.84820000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.9124639999999997E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99854929999999997</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.8153229999999995E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.77655719999999995</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18.46575</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.1228899999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5.5229239999999997</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.49254</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.0641560000000001</v>
+      </c>
+      <c r="O17" s="3">
+        <v>990.93190000000004</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4">
+        <v>45119.592199074075</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8.7780900000000006</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.7202440000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>91.746899999999997</v>
+      </c>
+      <c r="E18" s="3">
+        <v>104.8501</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.9125500000000002E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99854980000000004</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.8152870000000004E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.7797018</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18.46096</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.1755629999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5.6444150000000004</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.5295730000000001</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.0637399999999999</v>
+      </c>
+      <c r="O18" s="3">
+        <v>990.9325</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4">
+        <v>45119.592210648145</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8.7670159999999999</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.7316140000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <v>91.741590000000002</v>
+      </c>
+      <c r="E19" s="3">
+        <v>104.852</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.9126370000000003E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99855020000000005</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.8152519999999994E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.7828465</v>
+      </c>
+      <c r="J19" s="3">
+        <v>18.45617</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.2282350000000002</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5.7659060000000002</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.566605</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.0633239999999999</v>
+      </c>
+      <c r="O19" s="3">
+        <v>990.93309999999997</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.858519190000003</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.11325703</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="4">
+        <v>45119.592222222222</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8.7927610000000005</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.5019920000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>91.708079999999995</v>
+      </c>
+      <c r="E20" s="3">
+        <v>104.88630000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.9151609999999998E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99856560000000005</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.8189470000000002E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.96339300000000005</v>
+      </c>
+      <c r="J20" s="3">
+        <v>18.423089999999998</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3.5327480000000002</v>
+      </c>
+      <c r="L20" s="3">
+        <v>8.7761530000000008</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2.4837690000000001</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1.0711440000000001</v>
+      </c>
+      <c r="O20" s="3">
+        <v>990.95709999999997</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.858513240000001</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.113245879999994</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>45119.592013888891</v>
+        <v>45119.592233796298</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0618280000000002</v>
+        <v>8.7910690000000002</v>
       </c>
       <c r="C21" s="3">
-        <v>5.0526059999999999</v>
+        <v>5.4926909999999998</v>
       </c>
       <c r="D21" s="3">
-        <v>91.917789999999997</v>
+        <v>91.704390000000004</v>
       </c>
       <c r="E21" s="3">
-        <v>104.3676</v>
+        <v>104.8874</v>
       </c>
       <c r="F21" s="3">
-        <v>4.8898669999999998E-2</v>
+        <v>4.9152599999999998E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>0.99849299999999996</v>
+        <v>0.99856650000000002</v>
       </c>
       <c r="H21" s="3">
-        <v>6.7842200000000005E-2</v>
+        <v>6.8190899999999999E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>0.66977070000000005</v>
+        <v>0.97461739999999997</v>
       </c>
       <c r="J21" s="3">
-        <v>18.762509999999999</v>
+        <v>18.419779999999999</v>
       </c>
       <c r="K21" s="3">
-        <v>7.0779010000000003E-2</v>
+        <v>3.619726</v>
       </c>
       <c r="L21" s="3">
-        <v>0.79158930000000005</v>
+        <v>8.9768740000000005</v>
       </c>
       <c r="M21" s="3">
-        <v>2.1326009999999999E-2</v>
+        <v>2.5449199999999998</v>
       </c>
       <c r="N21" s="3">
-        <v>1.1470340000000001</v>
+        <v>1.0713950000000001</v>
       </c>
       <c r="O21" s="3">
-        <v>990.90610000000004</v>
+        <v>990.95780000000002</v>
       </c>
       <c r="P21" s="3">
-        <v>46.858513950000003</v>
+        <v>46.858513240000001</v>
       </c>
       <c r="Q21" s="3">
-        <v>-91.113269860000003</v>
+        <v>-91.113245879999994</v>
       </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>45119.59202546296</v>
+        <v>45119.592245370368</v>
       </c>
       <c r="B22" s="3">
-        <v>9.0617429999999999</v>
+        <v>8.7893760000000007</v>
       </c>
       <c r="C22" s="3">
-        <v>5.054881</v>
+        <v>5.4833889999999998</v>
       </c>
       <c r="D22" s="3">
-        <v>91.918850000000006</v>
+        <v>91.700699999999998</v>
       </c>
       <c r="E22" s="3">
-        <v>104.38339999999999</v>
+        <v>104.88849999999999</v>
       </c>
       <c r="F22" s="3">
-        <v>4.8904339999999998E-2</v>
+        <v>4.9153580000000002E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>0.99849390000000005</v>
+        <v>0.99856750000000005</v>
       </c>
       <c r="H22" s="3">
-        <v>6.7849900000000005E-2</v>
+        <v>6.8192329999999995E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>0.66990819999999995</v>
+        <v>0.98584159999999998</v>
       </c>
       <c r="J22" s="3">
-        <v>18.754020000000001</v>
+        <v>18.41647</v>
       </c>
       <c r="K22" s="3">
-        <v>7.2167469999999997E-2</v>
+        <v>3.7067040000000002</v>
       </c>
       <c r="L22" s="3">
-        <v>0.79490590000000005</v>
+        <v>9.1775950000000002</v>
       </c>
       <c r="M22" s="3">
-        <v>2.076364E-2</v>
+        <v>2.6060720000000002</v>
       </c>
       <c r="N22" s="3">
-        <v>1.145635</v>
+        <v>1.071645</v>
       </c>
       <c r="O22" s="3">
-        <v>990.90719999999999</v>
+        <v>990.95839999999998</v>
       </c>
       <c r="P22" s="3">
-        <v>46.858513950000003</v>
+        <v>46.858513240000001</v>
       </c>
       <c r="Q22" s="3">
-        <v>-91.113269860000003</v>
+        <v>-91.113245879999994</v>
       </c>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45119.592037037037</v>
+        <v>45119.592256944445</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0616590000000006</v>
+        <v>8.8159910000000004</v>
       </c>
       <c r="C23" s="3">
-        <v>5.057156</v>
+        <v>5.715535</v>
       </c>
       <c r="D23" s="3">
-        <v>91.919920000000005</v>
+        <v>91.564310000000006</v>
       </c>
       <c r="E23" s="3">
-        <v>104.3991</v>
+        <v>104.90219999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>4.8910009999999997E-2</v>
+        <v>4.9149829999999999E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99849480000000002</v>
+        <v>0.99857229999999997</v>
       </c>
       <c r="H23" s="3">
-        <v>6.7857589999999995E-2</v>
+        <v>6.8187890000000001E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.67004580000000002</v>
+        <v>0.97708680000000003</v>
       </c>
       <c r="J23" s="3">
-        <v>18.745529999999999</v>
+        <v>18.369199999999999</v>
       </c>
       <c r="K23" s="3">
-        <v>7.3555930000000005E-2</v>
+        <v>4.3648059999999997</v>
       </c>
       <c r="L23" s="3">
-        <v>0.79822249999999995</v>
+        <v>10.695449999999999</v>
       </c>
       <c r="M23" s="3">
-        <v>2.020127E-2</v>
+        <v>3.0687639999999998</v>
       </c>
       <c r="N23" s="3">
-        <v>1.1442349999999999</v>
+        <v>1.07975</v>
       </c>
       <c r="O23" s="3">
-        <v>990.90840000000003</v>
+        <v>990.91489999999999</v>
       </c>
       <c r="P23" s="3">
-        <v>46.858513950000003</v>
+        <v>46.858513240000001</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.113269860000003</v>
+        <v>-91.113245879999994</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45119.592048611114</v>
+        <v>45119.592268518521</v>
       </c>
       <c r="B24" s="3">
-        <v>9.1066570000000002</v>
+        <v>8.8178649999999994</v>
       </c>
       <c r="C24" s="3">
-        <v>5.0541739999999997</v>
+        <v>5.72295</v>
       </c>
       <c r="D24" s="3">
-        <v>91.878029999999995</v>
+        <v>91.556110000000004</v>
       </c>
       <c r="E24" s="3">
-        <v>104.50490000000001</v>
+        <v>104.9038</v>
       </c>
       <c r="F24" s="3">
-        <v>4.8961560000000001E-2</v>
+        <v>4.9150239999999998E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99850890000000003</v>
+        <v>0.99857289999999999</v>
       </c>
       <c r="H24" s="3">
-        <v>6.7928189999999999E-2</v>
+        <v>6.8188509999999994E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.68083470000000001</v>
+        <v>0.98079930000000004</v>
       </c>
       <c r="J24" s="3">
-        <v>18.700379999999999</v>
+        <v>18.365819999999999</v>
       </c>
       <c r="K24" s="3">
-        <v>3.6759350000000003E-2</v>
+        <v>4.4310520000000002</v>
       </c>
       <c r="L24" s="3">
-        <v>0.71350400000000003</v>
+        <v>10.848269999999999</v>
       </c>
       <c r="M24" s="3">
-        <v>2.2641250000000002E-2</v>
+        <v>3.1153400000000002</v>
       </c>
       <c r="N24" s="3">
-        <v>1.1286830000000001</v>
+        <v>1.080362</v>
       </c>
       <c r="O24" s="3">
-        <v>990.92650000000003</v>
+        <v>990.91309999999999</v>
       </c>
       <c r="P24" s="3">
-        <v>46.858513950000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.113269860000003</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45119.592060185183</v>
+        <v>45119.592280092591</v>
       </c>
       <c r="B25" s="3">
-        <v>9.1088550000000001</v>
+        <v>8.8197379999999992</v>
       </c>
       <c r="C25" s="3">
-        <v>5.0555009999999996</v>
+        <v>5.7303660000000001</v>
       </c>
       <c r="D25" s="3">
-        <v>91.876149999999996</v>
+        <v>91.547899999999998</v>
       </c>
       <c r="E25" s="3">
-        <v>104.51430000000001</v>
+        <v>104.9054</v>
       </c>
       <c r="F25" s="3">
-        <v>4.8966040000000002E-2</v>
+        <v>4.9150640000000002E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99850989999999995</v>
+        <v>0.99857359999999995</v>
       </c>
       <c r="H25" s="3">
-        <v>6.7934289999999994E-2</v>
+        <v>6.8189120000000006E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.6818845</v>
+        <v>0.9845119</v>
       </c>
       <c r="J25" s="3">
-        <v>18.695080000000001</v>
+        <v>18.362439999999999</v>
       </c>
       <c r="K25" s="3">
-        <v>3.5311969999999998E-2</v>
+        <v>4.4972979999999998</v>
       </c>
       <c r="L25" s="3">
-        <v>0.71024889999999996</v>
+        <v>11.001099999999999</v>
       </c>
       <c r="M25" s="3">
-        <v>2.2525949999999999E-2</v>
+        <v>3.1619160000000002</v>
       </c>
       <c r="N25" s="3">
-        <v>1.127459</v>
+        <v>1.080975</v>
       </c>
       <c r="O25" s="3">
-        <v>990.928</v>
+        <v>990.91129999999998</v>
       </c>
       <c r="P25" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45119.59207175926</v>
+        <v>45119.592291666668</v>
       </c>
       <c r="B26" s="3">
-        <v>9.1110530000000001</v>
+        <v>8.8255300000000005</v>
       </c>
       <c r="C26" s="3">
-        <v>5.0568280000000003</v>
+        <v>5.8135519999999996</v>
       </c>
       <c r="D26" s="3">
-        <v>91.874279999999999</v>
+        <v>91.536180000000002</v>
       </c>
       <c r="E26" s="3">
-        <v>104.52370000000001</v>
+        <v>104.9766</v>
       </c>
       <c r="F26" s="3">
-        <v>4.8970510000000002E-2</v>
+        <v>4.9184310000000002E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99851100000000004</v>
+        <v>0.99858029999999998</v>
       </c>
       <c r="H26" s="3">
-        <v>6.7940390000000003E-2</v>
+        <v>6.8241369999999996E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.68293429999999999</v>
+        <v>1.0653459999999999</v>
       </c>
       <c r="J26" s="3">
-        <v>18.689769999999999</v>
+        <v>18.299659999999999</v>
       </c>
       <c r="K26" s="3">
-        <v>3.386459E-2</v>
+        <v>5.0856170000000001</v>
       </c>
       <c r="L26" s="3">
-        <v>0.70699380000000001</v>
+        <v>13.185359999999999</v>
       </c>
       <c r="M26" s="3">
-        <v>2.2410659999999999E-2</v>
+        <v>3.8280880000000002</v>
       </c>
       <c r="N26" s="3">
-        <v>1.1262350000000001</v>
+        <v>1.0887150000000001</v>
       </c>
       <c r="O26" s="3">
-        <v>990.92960000000005</v>
+        <v>990.92830000000004</v>
       </c>
       <c r="P26" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45119.592083333337</v>
+        <v>45119.592303240737</v>
       </c>
       <c r="B27" s="3">
-        <v>9.0237890000000007</v>
+        <v>8.8264279999999999</v>
       </c>
       <c r="C27" s="3">
-        <v>5.379308</v>
+        <v>5.8231469999999996</v>
       </c>
       <c r="D27" s="3">
-        <v>91.882140000000007</v>
+        <v>91.532330000000002</v>
       </c>
       <c r="E27" s="3">
-        <v>104.60760000000001</v>
+        <v>104.9807</v>
       </c>
       <c r="F27" s="3">
-        <v>4.9010749999999999E-2</v>
+        <v>4.9186029999999999E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99851659999999998</v>
+        <v>0.99858080000000005</v>
       </c>
       <c r="H27" s="3">
-        <v>6.7994959999999993E-2</v>
+        <v>6.8244079999999999E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.80246980000000001</v>
+        <v>1.0696509999999999</v>
       </c>
       <c r="J27" s="3">
-        <v>18.633669999999999</v>
+        <v>18.295169999999999</v>
       </c>
       <c r="K27" s="3">
-        <v>1.6497560000000001E-2</v>
+        <v>5.1337339999999996</v>
       </c>
       <c r="L27" s="3">
-        <v>0.66477419999999998</v>
+        <v>13.340260000000001</v>
       </c>
       <c r="M27" s="3">
-        <v>1.0836200000000001E-2</v>
+        <v>3.8753250000000001</v>
       </c>
       <c r="N27" s="3">
-        <v>1.1106240000000001</v>
+        <v>1.0893189999999999</v>
       </c>
       <c r="O27" s="3">
-        <v>990.91160000000002</v>
+        <v>990.92830000000004</v>
       </c>
       <c r="P27" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45119.592094907406</v>
+        <v>45119.592314814814</v>
       </c>
       <c r="B28" s="3">
-        <v>9.020111</v>
+        <v>8.8273270000000004</v>
       </c>
       <c r="C28" s="3">
-        <v>5.3967010000000002</v>
+        <v>5.8327410000000004</v>
       </c>
       <c r="D28" s="3">
-        <v>91.881609999999995</v>
+        <v>91.528490000000005</v>
       </c>
       <c r="E28" s="3">
-        <v>104.6148</v>
+        <v>104.9849</v>
       </c>
       <c r="F28" s="3">
-        <v>4.9014200000000001E-2</v>
+        <v>4.9187750000000002E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99851719999999999</v>
+        <v>0.99858130000000001</v>
       </c>
       <c r="H28" s="3">
-        <v>6.7999649999999995E-2</v>
+        <v>6.8246769999999998E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.80918069999999997</v>
+        <v>1.0739559999999999</v>
       </c>
       <c r="J28" s="3">
-        <v>18.629480000000001</v>
+        <v>18.290679999999998</v>
       </c>
       <c r="K28" s="3">
-        <v>1.4725800000000001E-2</v>
+        <v>5.1818499999999998</v>
       </c>
       <c r="L28" s="3">
-        <v>0.66057529999999998</v>
+        <v>13.49517</v>
       </c>
       <c r="M28" s="3">
-        <v>1.0259829999999999E-2</v>
+        <v>3.9225620000000001</v>
       </c>
       <c r="N28" s="3">
-        <v>1.1094010000000001</v>
+        <v>1.089923</v>
       </c>
       <c r="O28" s="3">
-        <v>990.91110000000003</v>
+        <v>990.92819999999995</v>
       </c>
       <c r="P28" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45119.592106481483</v>
+        <v>45119.592326388891</v>
       </c>
       <c r="B29" s="3">
-        <v>9.016432</v>
+        <v>8.780996</v>
       </c>
       <c r="C29" s="3">
-        <v>5.4140949999999997</v>
+        <v>5.747395</v>
       </c>
       <c r="D29" s="3">
-        <v>91.88109</v>
+        <v>91.491349999999997</v>
       </c>
       <c r="E29" s="3">
-        <v>104.622</v>
+        <v>105.075</v>
       </c>
       <c r="F29" s="3">
-        <v>4.9017640000000001E-2</v>
+        <v>4.9230599999999999E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99851789999999996</v>
+        <v>0.99859229999999999</v>
       </c>
       <c r="H29" s="3">
-        <v>6.8004330000000002E-2</v>
+        <v>6.8299429999999994E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.8158917</v>
+        <v>1.0377050000000001</v>
       </c>
       <c r="J29" s="3">
-        <v>18.62529</v>
+        <v>18.260110000000001</v>
       </c>
       <c r="K29" s="3">
-        <v>1.295404E-2</v>
+        <v>6.299785</v>
       </c>
       <c r="L29" s="3">
-        <v>0.65637639999999997</v>
+        <v>15.24696</v>
       </c>
       <c r="M29" s="3">
-        <v>9.6834580000000007E-3</v>
+        <v>4.4572690000000001</v>
       </c>
       <c r="N29" s="3">
-        <v>1.1081780000000001</v>
+        <v>1.08979</v>
       </c>
       <c r="O29" s="3">
-        <v>990.91060000000004</v>
+        <v>990.91160000000002</v>
       </c>
       <c r="P29" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45119.592118055552</v>
+        <v>45119.59233796296</v>
       </c>
       <c r="B30" s="3">
-        <v>9.1051179999999992</v>
+        <v>8.7787059999999997</v>
       </c>
       <c r="C30" s="3">
-        <v>5.3680320000000004</v>
+        <v>5.7448920000000001</v>
       </c>
       <c r="D30" s="3">
-        <v>91.878619999999998</v>
+        <v>91.488950000000003</v>
       </c>
       <c r="E30" s="3">
-        <v>104.6789</v>
+        <v>105.0814</v>
       </c>
       <c r="F30" s="3">
-        <v>4.9044789999999998E-2</v>
+        <v>4.9233640000000002E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99853320000000001</v>
+        <v>0.99859310000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>6.810919E-2</v>
+        <v>6.8303409999999995E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>0.73676920000000001</v>
+        <v>1.0376749999999999</v>
       </c>
       <c r="J30" s="3">
-        <v>18.598520000000001</v>
+        <v>18.257000000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>0.60693140000000001</v>
+        <v>6.3737750000000002</v>
       </c>
       <c r="L30" s="3">
-        <v>2.0284749999999998</v>
+        <v>15.39232</v>
       </c>
       <c r="M30" s="3">
-        <v>0.42671530000000002</v>
+        <v>4.5016249999999998</v>
       </c>
       <c r="N30" s="3">
-        <v>1.077196</v>
+        <v>1.0899700000000001</v>
       </c>
       <c r="O30" s="3">
-        <v>990.85799999999995</v>
+        <v>990.91110000000003</v>
       </c>
       <c r="P30" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45119.592129629629</v>
+        <v>45119.592349537037</v>
       </c>
       <c r="B31" s="3">
-        <v>9.1078159999999997</v>
+        <v>8.7764159999999993</v>
       </c>
       <c r="C31" s="3">
-        <v>5.3730580000000003</v>
+        <v>5.7423900000000003</v>
       </c>
       <c r="D31" s="3">
-        <v>91.878630000000001</v>
+        <v>91.486530000000002</v>
       </c>
       <c r="E31" s="3">
-        <v>104.684</v>
+        <v>105.0878</v>
       </c>
       <c r="F31" s="3">
-        <v>4.9047220000000002E-2</v>
+        <v>4.9236679999999998E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99853409999999998</v>
+        <v>0.99859379999999998</v>
       </c>
       <c r="H31" s="3">
-        <v>6.8116079999999996E-2</v>
+        <v>6.8307389999999996E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.73537419999999998</v>
+        <v>1.0376460000000001</v>
       </c>
       <c r="J31" s="3">
-        <v>18.59573</v>
+        <v>18.253889999999998</v>
       </c>
       <c r="K31" s="3">
-        <v>0.63778679999999999</v>
+        <v>6.4477650000000004</v>
       </c>
       <c r="L31" s="3">
-        <v>2.0997050000000002</v>
+        <v>15.53768</v>
       </c>
       <c r="M31" s="3">
-        <v>0.4484088</v>
+        <v>4.5459800000000001</v>
       </c>
       <c r="N31" s="3">
-        <v>1.0751839999999999</v>
+        <v>1.09015</v>
       </c>
       <c r="O31" s="3">
-        <v>990.85490000000004</v>
+        <v>990.91060000000004</v>
       </c>
       <c r="P31" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45119.592141203706</v>
+        <v>45119.592361111114</v>
       </c>
       <c r="B32" s="3">
-        <v>9.1105140000000002</v>
+        <v>8.7914700000000003</v>
       </c>
       <c r="C32" s="3">
-        <v>5.3780840000000003</v>
+        <v>5.8663350000000003</v>
       </c>
       <c r="D32" s="3">
-        <v>91.878649999999993</v>
+        <v>91.45599</v>
       </c>
       <c r="E32" s="3">
-        <v>104.6891</v>
+        <v>105.104</v>
       </c>
       <c r="F32" s="3">
-        <v>4.9049660000000002E-2</v>
+        <v>4.9244129999999997E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99853519999999996</v>
+        <v>0.99859799999999999</v>
       </c>
       <c r="H32" s="3">
-        <v>6.8122959999999996E-2</v>
+        <v>6.8317810000000007E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.73397920000000005</v>
+        <v>1.06081</v>
       </c>
       <c r="J32" s="3">
-        <v>18.592939999999999</v>
+        <v>18.20476</v>
       </c>
       <c r="K32" s="3">
-        <v>0.66864219999999996</v>
+        <v>7.1039339999999997</v>
       </c>
       <c r="L32" s="3">
-        <v>2.1709339999999999</v>
+        <v>17.036660000000001</v>
       </c>
       <c r="M32" s="3">
-        <v>0.47010220000000003</v>
+        <v>5.4010769999999999</v>
       </c>
       <c r="N32" s="3">
-        <v>1.073172</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O32" s="3">
-        <v>990.85170000000005</v>
+        <v>990.88409999999999</v>
       </c>
       <c r="P32" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45119.592152777775</v>
+        <v>45119.592372685183</v>
       </c>
       <c r="B33" s="3">
-        <v>8.9376979999999993</v>
+        <v>8.7912239999999997</v>
       </c>
       <c r="C33" s="3">
-        <v>5.5563700000000003</v>
+        <v>5.871041</v>
       </c>
       <c r="D33" s="3">
-        <v>91.839860000000002</v>
+        <v>91.453479999999999</v>
       </c>
       <c r="E33" s="3">
-        <v>104.86960000000001</v>
+        <v>105.107</v>
       </c>
       <c r="F33" s="3">
-        <v>4.9135570000000003E-2</v>
+        <v>4.9245509999999999E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99854359999999998</v>
+        <v>0.99859849999999994</v>
       </c>
       <c r="H33" s="3">
-        <v>6.8172689999999994E-2</v>
+        <v>6.8319580000000005E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.71440119999999996</v>
+        <v>1.061266</v>
       </c>
       <c r="J33" s="3">
-        <v>18.53904</v>
+        <v>18.201429999999998</v>
       </c>
       <c r="K33" s="3">
-        <v>1.32206</v>
+        <v>7.1642299999999999</v>
       </c>
       <c r="L33" s="3">
-        <v>3.6745559999999999</v>
+        <v>17.15701</v>
       </c>
       <c r="M33" s="3">
-        <v>0.92950029999999995</v>
+        <v>5.458507</v>
       </c>
       <c r="N33" s="3">
-        <v>1.072962</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O33" s="3">
-        <v>990.95659999999998</v>
+        <v>990.88239999999996</v>
       </c>
       <c r="P33" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45119.592164351852</v>
+        <v>45119.59238425926</v>
       </c>
       <c r="B34" s="3">
-        <v>8.9301929999999992</v>
+        <v>8.7909769999999998</v>
       </c>
       <c r="C34" s="3">
-        <v>5.5653290000000002</v>
+        <v>5.8757479999999997</v>
       </c>
       <c r="D34" s="3">
-        <v>91.837689999999995</v>
+        <v>91.450969999999998</v>
       </c>
       <c r="E34" s="3">
-        <v>104.88079999999999</v>
+        <v>105.1099</v>
       </c>
       <c r="F34" s="3">
-        <v>4.9140870000000003E-2</v>
+        <v>4.9246900000000003E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99854449999999995</v>
+        <v>0.99859900000000001</v>
       </c>
       <c r="H34" s="3">
-        <v>6.8177740000000001E-2</v>
+        <v>6.8321350000000003E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.71173319999999995</v>
+        <v>1.061723</v>
       </c>
       <c r="J34" s="3">
-        <v>18.53546</v>
+        <v>18.1981</v>
       </c>
       <c r="K34" s="3">
-        <v>1.3703669999999999</v>
+        <v>7.224526</v>
       </c>
       <c r="L34" s="3">
-        <v>3.7858320000000001</v>
+        <v>17.277360000000002</v>
       </c>
       <c r="M34" s="3">
-        <v>0.96346390000000004</v>
+        <v>5.5159370000000001</v>
       </c>
       <c r="N34" s="3">
-        <v>1.0722560000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O34" s="3">
-        <v>990.96119999999996</v>
+        <v>990.88059999999996</v>
       </c>
       <c r="P34" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45119.592175925929</v>
+        <v>45119.592395833337</v>
       </c>
       <c r="B35" s="3">
-        <v>8.9226880000000008</v>
+        <v>8.7810260000000007</v>
       </c>
       <c r="C35" s="3">
-        <v>5.574287</v>
+        <v>5.9549180000000002</v>
       </c>
       <c r="D35" s="3">
-        <v>91.835520000000002</v>
+        <v>91.392319999999998</v>
       </c>
       <c r="E35" s="3">
-        <v>104.89190000000001</v>
+        <v>105.1305</v>
       </c>
       <c r="F35" s="3">
-        <v>4.9146179999999998E-2</v>
+        <v>4.9256179999999997E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99854529999999997</v>
+        <v>0.99860610000000005</v>
       </c>
       <c r="H35" s="3">
-        <v>6.8182800000000002E-2</v>
+        <v>6.8334859999999997E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.7090651</v>
+        <v>1.042114</v>
       </c>
       <c r="J35" s="3">
-        <v>18.531890000000001</v>
+        <v>18.17794</v>
       </c>
       <c r="K35" s="3">
-        <v>1.4186749999999999</v>
+        <v>8.4153690000000001</v>
       </c>
       <c r="L35" s="3">
-        <v>3.8971079999999998</v>
+        <v>20.03837</v>
       </c>
       <c r="M35" s="3">
-        <v>0.99742750000000002</v>
+        <v>5.9682599999999999</v>
       </c>
       <c r="N35" s="3">
-        <v>1.0715509999999999</v>
+        <v>1.0822909999999999</v>
       </c>
       <c r="O35" s="3">
-        <v>990.96569999999997</v>
+        <v>990.92349999999999</v>
       </c>
       <c r="P35" s="3">
-        <v>46.858519190000003</v>
+        <v>46.85850009</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.11325703</v>
+        <v>-91.113254569999995</v>
       </c>
       <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>45119.592187499999</v>
-      </c>
-      <c r="B36" s="3">
-        <v>8.7891639999999995</v>
-      </c>
-      <c r="C36" s="3">
-        <v>5.7088749999999999</v>
-      </c>
-      <c r="D36" s="3">
-        <v>91.752210000000005</v>
-      </c>
-      <c r="E36" s="3">
-        <v>104.84820000000001</v>
-      </c>
-      <c r="F36" s="3">
-        <v>4.9124639999999997E-2</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.99854929999999997</v>
-      </c>
-      <c r="H36" s="3">
-        <v>6.8153229999999995E-2</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.77655719999999995</v>
-      </c>
-      <c r="J36" s="3">
-        <v>18.46575</v>
-      </c>
-      <c r="K36" s="3">
-        <v>2.1228899999999999</v>
-      </c>
-      <c r="L36" s="3">
-        <v>5.5229239999999997</v>
-      </c>
-      <c r="M36" s="3">
-        <v>1.49254</v>
-      </c>
-      <c r="N36" s="3">
-        <v>1.0641560000000001</v>
-      </c>
-      <c r="O36" s="3">
-        <v>990.93190000000004</v>
-      </c>
-      <c r="P36" s="3">
-        <v>46.858519190000003</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>-91.11325703</v>
-      </c>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>45119.592199074075</v>
-      </c>
-      <c r="B37" s="3">
-        <v>8.7780900000000006</v>
-      </c>
-      <c r="C37" s="3">
-        <v>5.7202440000000001</v>
-      </c>
-      <c r="D37" s="3">
-        <v>91.746899999999997</v>
-      </c>
-      <c r="E37" s="3">
-        <v>104.8501</v>
-      </c>
-      <c r="F37" s="3">
-        <v>4.9125500000000002E-2</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.99854980000000004</v>
-      </c>
-      <c r="H37" s="3">
-        <v>6.8152870000000004E-2</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.7797018</v>
-      </c>
-      <c r="J37" s="3">
-        <v>18.46096</v>
-      </c>
-      <c r="K37" s="3">
-        <v>2.1755629999999999</v>
-      </c>
-      <c r="L37" s="3">
-        <v>5.6444150000000004</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1.5295730000000001</v>
-      </c>
-      <c r="N37" s="3">
-        <v>1.0637399999999999</v>
-      </c>
-      <c r="O37" s="3">
-        <v>990.9325</v>
-      </c>
-      <c r="P37" s="3">
-        <v>46.858519190000003</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>-91.11325703</v>
-      </c>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>45119.592210648145</v>
-      </c>
-      <c r="B38" s="3">
-        <v>8.7670159999999999</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5.7316140000000004</v>
-      </c>
-      <c r="D38" s="3">
-        <v>91.741590000000002</v>
-      </c>
-      <c r="E38" s="3">
-        <v>104.852</v>
-      </c>
-      <c r="F38" s="3">
-        <v>4.9126370000000003E-2</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.99855020000000005</v>
-      </c>
-      <c r="H38" s="3">
-        <v>6.8152519999999994E-2</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0.7828465</v>
-      </c>
-      <c r="J38" s="3">
-        <v>18.45617</v>
-      </c>
-      <c r="K38" s="3">
-        <v>2.2282350000000002</v>
-      </c>
-      <c r="L38" s="3">
-        <v>5.7659060000000002</v>
-      </c>
-      <c r="M38" s="3">
-        <v>1.566605</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1.0633239999999999</v>
-      </c>
-      <c r="O38" s="3">
-        <v>990.93309999999997</v>
-      </c>
-      <c r="P38" s="3">
-        <v>46.858519190000003</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>-91.11325703</v>
-      </c>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>45119.592222222222</v>
-      </c>
-      <c r="B39" s="3">
-        <v>8.7927610000000005</v>
-      </c>
-      <c r="C39" s="3">
-        <v>5.5019920000000004</v>
-      </c>
-      <c r="D39" s="3">
-        <v>91.708079999999995</v>
-      </c>
-      <c r="E39" s="3">
-        <v>104.88630000000001</v>
-      </c>
-      <c r="F39" s="3">
-        <v>4.9151609999999998E-2</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.99856560000000005</v>
-      </c>
-      <c r="H39" s="3">
-        <v>6.8189470000000002E-2</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0.96339300000000005</v>
-      </c>
-      <c r="J39" s="3">
-        <v>18.423089999999998</v>
-      </c>
-      <c r="K39" s="3">
-        <v>3.5327480000000002</v>
-      </c>
-      <c r="L39" s="3">
-        <v>8.7761530000000008</v>
-      </c>
-      <c r="M39" s="3">
-        <v>2.4837690000000001</v>
-      </c>
-      <c r="N39" s="3">
-        <v>1.0711440000000001</v>
-      </c>
-      <c r="O39" s="3">
-        <v>990.95709999999997</v>
-      </c>
-      <c r="P39" s="3">
-        <v>46.858513240000001</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>-91.113245879999994</v>
-      </c>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>45119.592233796298</v>
-      </c>
-      <c r="B40" s="3">
-        <v>8.7910690000000002</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5.4926909999999998</v>
-      </c>
-      <c r="D40" s="3">
-        <v>91.704390000000004</v>
-      </c>
-      <c r="E40" s="3">
-        <v>104.8874</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4.9152599999999998E-2</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.99856650000000002</v>
-      </c>
-      <c r="H40" s="3">
-        <v>6.8190899999999999E-2</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.97461739999999997</v>
-      </c>
-      <c r="J40" s="3">
-        <v>18.419779999999999</v>
-      </c>
-      <c r="K40" s="3">
-        <v>3.619726</v>
-      </c>
-      <c r="L40" s="3">
-        <v>8.9768740000000005</v>
-      </c>
-      <c r="M40" s="3">
-        <v>2.5449199999999998</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1.0713950000000001</v>
-      </c>
-      <c r="O40" s="3">
-        <v>990.95780000000002</v>
-      </c>
-      <c r="P40" s="3">
-        <v>46.858513240000001</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>-91.113245879999994</v>
-      </c>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>45119.592245370368</v>
-      </c>
-      <c r="B41" s="3">
-        <v>8.7893760000000007</v>
-      </c>
-      <c r="C41" s="3">
-        <v>5.4833889999999998</v>
-      </c>
-      <c r="D41" s="3">
-        <v>91.700699999999998</v>
-      </c>
-      <c r="E41" s="3">
-        <v>104.88849999999999</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4.9153580000000002E-2</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.99856750000000005</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6.8192329999999995E-2</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0.98584159999999998</v>
-      </c>
-      <c r="J41" s="3">
-        <v>18.41647</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3.7067040000000002</v>
-      </c>
-      <c r="L41" s="3">
-        <v>9.1775950000000002</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2.6060720000000002</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1.071645</v>
-      </c>
-      <c r="O41" s="3">
-        <v>990.95839999999998</v>
-      </c>
-      <c r="P41" s="3">
-        <v>46.858513240000001</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>-91.113245879999994</v>
-      </c>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>45119.592256944445</v>
-      </c>
-      <c r="B42" s="3">
-        <v>8.8159910000000004</v>
-      </c>
-      <c r="C42" s="3">
-        <v>5.715535</v>
-      </c>
-      <c r="D42" s="3">
-        <v>91.564310000000006</v>
-      </c>
-      <c r="E42" s="3">
-        <v>104.90219999999999</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4.9149829999999999E-2</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.99857229999999997</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6.8187890000000001E-2</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0.97708680000000003</v>
-      </c>
-      <c r="J42" s="3">
-        <v>18.369199999999999</v>
-      </c>
-      <c r="K42" s="3">
-        <v>4.3648059999999997</v>
-      </c>
-      <c r="L42" s="3">
-        <v>10.695449999999999</v>
-      </c>
-      <c r="M42" s="3">
-        <v>3.0687639999999998</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1.07975</v>
-      </c>
-      <c r="O42" s="3">
-        <v>990.91489999999999</v>
-      </c>
-      <c r="P42" s="3">
-        <v>46.858513240000001</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>-91.113245879999994</v>
-      </c>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>45119.592268518521</v>
-      </c>
-      <c r="B43" s="3">
-        <v>8.8178649999999994</v>
-      </c>
-      <c r="C43" s="3">
-        <v>5.72295</v>
-      </c>
-      <c r="D43" s="3">
-        <v>91.556110000000004</v>
-      </c>
-      <c r="E43" s="3">
-        <v>104.9038</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4.9150239999999998E-2</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.99857289999999999</v>
-      </c>
-      <c r="H43" s="3">
-        <v>6.8188509999999994E-2</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0.98079930000000004</v>
-      </c>
-      <c r="J43" s="3">
-        <v>18.365819999999999</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4.4310520000000002</v>
-      </c>
-      <c r="L43" s="3">
-        <v>10.848269999999999</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3.1153400000000002</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1.080362</v>
-      </c>
-      <c r="O43" s="3">
-        <v>990.91309999999999</v>
-      </c>
-      <c r="P43" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>45119.592280092591</v>
-      </c>
-      <c r="B44" s="3">
-        <v>8.8197379999999992</v>
-      </c>
-      <c r="C44" s="3">
-        <v>5.7303660000000001</v>
-      </c>
-      <c r="D44" s="3">
-        <v>91.547899999999998</v>
-      </c>
-      <c r="E44" s="3">
-        <v>104.9054</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4.9150640000000002E-2</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.99857359999999995</v>
-      </c>
-      <c r="H44" s="3">
-        <v>6.8189120000000006E-2</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0.9845119</v>
-      </c>
-      <c r="J44" s="3">
-        <v>18.362439999999999</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4.4972979999999998</v>
-      </c>
-      <c r="L44" s="3">
-        <v>11.001099999999999</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3.1619160000000002</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1.080975</v>
-      </c>
-      <c r="O44" s="3">
-        <v>990.91129999999998</v>
-      </c>
-      <c r="P44" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>45119.592291666668</v>
-      </c>
-      <c r="B45" s="3">
-        <v>8.8255300000000005</v>
-      </c>
-      <c r="C45" s="3">
-        <v>5.8135519999999996</v>
-      </c>
-      <c r="D45" s="3">
-        <v>91.536180000000002</v>
-      </c>
-      <c r="E45" s="3">
-        <v>104.9766</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4.9184310000000002E-2</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0.99858029999999998</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6.8241369999999996E-2</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1.0653459999999999</v>
-      </c>
-      <c r="J45" s="3">
-        <v>18.299659999999999</v>
-      </c>
-      <c r="K45" s="3">
-        <v>5.0856170000000001</v>
-      </c>
-      <c r="L45" s="3">
-        <v>13.185359999999999</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3.8280880000000002</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1.0887150000000001</v>
-      </c>
-      <c r="O45" s="3">
-        <v>990.92830000000004</v>
-      </c>
-      <c r="P45" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>45119.592303240737</v>
-      </c>
-      <c r="B46" s="3">
-        <v>8.8264279999999999</v>
-      </c>
-      <c r="C46" s="3">
-        <v>5.8231469999999996</v>
-      </c>
-      <c r="D46" s="3">
-        <v>91.532330000000002</v>
-      </c>
-      <c r="E46" s="3">
-        <v>104.9807</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4.9186029999999999E-2</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0.99858080000000005</v>
-      </c>
-      <c r="H46" s="3">
-        <v>6.8244079999999999E-2</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1.0696509999999999</v>
-      </c>
-      <c r="J46" s="3">
-        <v>18.295169999999999</v>
-      </c>
-      <c r="K46" s="3">
-        <v>5.1337339999999996</v>
-      </c>
-      <c r="L46" s="3">
-        <v>13.340260000000001</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3.8753250000000001</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1.0893189999999999</v>
-      </c>
-      <c r="O46" s="3">
-        <v>990.92830000000004</v>
-      </c>
-      <c r="P46" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>45119.592314814814</v>
-      </c>
-      <c r="B47" s="3">
-        <v>8.8273270000000004</v>
-      </c>
-      <c r="C47" s="3">
-        <v>5.8327410000000004</v>
-      </c>
-      <c r="D47" s="3">
-        <v>91.528490000000005</v>
-      </c>
-      <c r="E47" s="3">
-        <v>104.9849</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4.9187750000000002E-2</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.99858130000000001</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6.8246769999999998E-2</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1.0739559999999999</v>
-      </c>
-      <c r="J47" s="3">
-        <v>18.290679999999998</v>
-      </c>
-      <c r="K47" s="3">
-        <v>5.1818499999999998</v>
-      </c>
-      <c r="L47" s="3">
-        <v>13.49517</v>
-      </c>
-      <c r="M47" s="3">
-        <v>3.9225620000000001</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1.089923</v>
-      </c>
-      <c r="O47" s="3">
-        <v>990.92819999999995</v>
-      </c>
-      <c r="P47" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>45119.592326388891</v>
-      </c>
-      <c r="B48" s="3">
-        <v>8.780996</v>
-      </c>
-      <c r="C48" s="3">
-        <v>5.747395</v>
-      </c>
-      <c r="D48" s="3">
-        <v>91.491349999999997</v>
-      </c>
-      <c r="E48" s="3">
-        <v>105.075</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4.9230599999999999E-2</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.99859229999999999</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6.8299429999999994E-2</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1.0377050000000001</v>
-      </c>
-      <c r="J48" s="3">
-        <v>18.260110000000001</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6.299785</v>
-      </c>
-      <c r="L48" s="3">
-        <v>15.24696</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4.4572690000000001</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1.08979</v>
-      </c>
-      <c r="O48" s="3">
-        <v>990.91160000000002</v>
-      </c>
-      <c r="P48" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>45119.59233796296</v>
-      </c>
-      <c r="B49" s="3">
-        <v>8.7787059999999997</v>
-      </c>
-      <c r="C49" s="3">
-        <v>5.7448920000000001</v>
-      </c>
-      <c r="D49" s="3">
-        <v>91.488950000000003</v>
-      </c>
-      <c r="E49" s="3">
-        <v>105.0814</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4.9233640000000002E-2</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0.99859310000000001</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6.8303409999999995E-2</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1.0376749999999999</v>
-      </c>
-      <c r="J49" s="3">
-        <v>18.257000000000001</v>
-      </c>
-      <c r="K49" s="3">
-        <v>6.3737750000000002</v>
-      </c>
-      <c r="L49" s="3">
-        <v>15.39232</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4.5016249999999998</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1.0899700000000001</v>
-      </c>
-      <c r="O49" s="3">
-        <v>990.91110000000003</v>
-      </c>
-      <c r="P49" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>45119.592349537037</v>
-      </c>
-      <c r="B50" s="3">
-        <v>8.7764159999999993</v>
-      </c>
-      <c r="C50" s="3">
-        <v>5.7423900000000003</v>
-      </c>
-      <c r="D50" s="3">
-        <v>91.486530000000002</v>
-      </c>
-      <c r="E50" s="3">
-        <v>105.0878</v>
-      </c>
-      <c r="F50" s="3">
-        <v>4.9236679999999998E-2</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0.99859379999999998</v>
-      </c>
-      <c r="H50" s="3">
-        <v>6.8307389999999996E-2</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1.0376460000000001</v>
-      </c>
-      <c r="J50" s="3">
-        <v>18.253889999999998</v>
-      </c>
-      <c r="K50" s="3">
-        <v>6.4477650000000004</v>
-      </c>
-      <c r="L50" s="3">
-        <v>15.53768</v>
-      </c>
-      <c r="M50" s="3">
-        <v>4.5459800000000001</v>
-      </c>
-      <c r="N50" s="3">
-        <v>1.09015</v>
-      </c>
-      <c r="O50" s="3">
-        <v>990.91060000000004</v>
-      </c>
-      <c r="P50" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>45119.592361111114</v>
-      </c>
-      <c r="B51" s="3">
-        <v>8.7914700000000003</v>
-      </c>
-      <c r="C51" s="3">
-        <v>5.8663350000000003</v>
-      </c>
-      <c r="D51" s="3">
-        <v>91.45599</v>
-      </c>
-      <c r="E51" s="3">
-        <v>105.104</v>
-      </c>
-      <c r="F51" s="3">
-        <v>4.9244129999999997E-2</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0.99859799999999999</v>
-      </c>
-      <c r="H51" s="3">
-        <v>6.8317810000000007E-2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>1.06081</v>
-      </c>
-      <c r="J51" s="3">
-        <v>18.20476</v>
-      </c>
-      <c r="K51" s="3">
-        <v>7.1039339999999997</v>
-      </c>
-      <c r="L51" s="3">
-        <v>17.036660000000001</v>
-      </c>
-      <c r="M51" s="3">
-        <v>5.4010769999999999</v>
-      </c>
-      <c r="N51" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O51" s="3">
-        <v>990.88409999999999</v>
-      </c>
-      <c r="P51" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>45119.592372685183</v>
-      </c>
-      <c r="B52" s="3">
-        <v>8.7912239999999997</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5.871041</v>
-      </c>
-      <c r="D52" s="3">
-        <v>91.453479999999999</v>
-      </c>
-      <c r="E52" s="3">
-        <v>105.107</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.9245509999999999E-2</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.99859849999999994</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6.8319580000000005E-2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1.061266</v>
-      </c>
-      <c r="J52" s="3">
-        <v>18.201429999999998</v>
-      </c>
-      <c r="K52" s="3">
-        <v>7.1642299999999999</v>
-      </c>
-      <c r="L52" s="3">
-        <v>17.15701</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5.458507</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O52" s="3">
-        <v>990.88239999999996</v>
-      </c>
-      <c r="P52" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>45119.59238425926</v>
-      </c>
-      <c r="B53" s="3">
-        <v>8.7909769999999998</v>
-      </c>
-      <c r="C53" s="3">
-        <v>5.8757479999999997</v>
-      </c>
-      <c r="D53" s="3">
-        <v>91.450969999999998</v>
-      </c>
-      <c r="E53" s="3">
-        <v>105.1099</v>
-      </c>
-      <c r="F53" s="3">
-        <v>4.9246900000000003E-2</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0.99859900000000001</v>
-      </c>
-      <c r="H53" s="3">
-        <v>6.8321350000000003E-2</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1.061723</v>
-      </c>
-      <c r="J53" s="3">
-        <v>18.1981</v>
-      </c>
-      <c r="K53" s="3">
-        <v>7.224526</v>
-      </c>
-      <c r="L53" s="3">
-        <v>17.277360000000002</v>
-      </c>
-      <c r="M53" s="3">
-        <v>5.5159370000000001</v>
-      </c>
-      <c r="N53" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O53" s="3">
-        <v>990.88059999999996</v>
-      </c>
-      <c r="P53" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>45119.592395833337</v>
-      </c>
-      <c r="B54" s="3">
-        <v>8.7810260000000007</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5.9549180000000002</v>
-      </c>
-      <c r="D54" s="3">
-        <v>91.392319999999998</v>
-      </c>
-      <c r="E54" s="3">
-        <v>105.1305</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4.9256179999999997E-2</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.99860610000000005</v>
-      </c>
-      <c r="H54" s="3">
-        <v>6.8334859999999997E-2</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1.042114</v>
-      </c>
-      <c r="J54" s="3">
-        <v>18.17794</v>
-      </c>
-      <c r="K54" s="3">
-        <v>8.4153690000000001</v>
-      </c>
-      <c r="L54" s="3">
-        <v>20.03837</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5.9682599999999999</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1.0822909999999999</v>
-      </c>
-      <c r="O54" s="3">
-        <v>990.92349999999999</v>
-      </c>
-      <c r="P54" s="3">
-        <v>46.85850009</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>-91.113254569999995</v>
-      </c>
-      <c r="R54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
